--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>921950.3341615711</v>
+        <v>919249.7966927463</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,7 +674,7 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>36.77700390724858</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="V2" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>36.7770039072487</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>78.78174892899983</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664346</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4458084395867</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
-        <v>33.29580449511352</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176904</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>202.1185022249738</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>239.8079481415045</v>
+        <v>8.690045061216868</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>34.90832624883203</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>95.70472393020675</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>141.1814615316175</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1074921335361</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>347.5244790373707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7506765600919</v>
       </c>
       <c r="H6" t="n">
-        <v>77.91563471152226</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.261993899359126</v>
+        <v>1.261993899359027</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>142.096855515207</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.7444632813737</v>
       </c>
       <c r="U6" t="n">
         <v>225.8365899360328</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>46.9981001740587</v>
       </c>
     </row>
     <row r="7">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>130.4309922073432</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.2918344467883</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>117.2496683371439</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7444959205693</v>
       </c>
       <c r="T7" t="n">
         <v>222.2398575583235</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>250.0362071666464</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>175.0763352473408</v>
+        <v>117.5235404623155</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>18.56489249210083</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.5761046894317</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>174.9087007238529</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>304.006512519987</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>24.1466220418454</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>98.88510599615202</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812548</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530783</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.8133067990523</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793549</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.2516098571263</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740289</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>69.83388910785385</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012793</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819437</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>135.0353110735029</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795539</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.272891771005</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695695</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>120.787132650391</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>5.820766091346741e-12</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>53.08838020946239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>159.2132752806831</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>35.88641949135507</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="30">
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699809</v>
       </c>
       <c r="E31" t="n">
-        <v>113.541358075969</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.14939830226622</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.799772605715718</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987833282</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,13 +3478,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>139.1630968205461</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722604</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.08838020946194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503966</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>59.45282559760535</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.981557645678</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>148.8966545308554</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>523.638015619661</v>
+        <v>281.4077649716768</v>
       </c>
       <c r="C2" t="n">
-        <v>281.4077649716767</v>
+        <v>281.4077649716768</v>
       </c>
       <c r="D2" t="n">
-        <v>281.4077649716767</v>
+        <v>281.4077649716768</v>
       </c>
       <c r="E2" t="n">
-        <v>281.4077649716767</v>
+        <v>39.17751432369234</v>
       </c>
       <c r="F2" t="n">
-        <v>274.4622642224732</v>
+        <v>32.23201357448886</v>
       </c>
       <c r="G2" t="n">
-        <v>261.4148864993047</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470354</v>
+        <v>40.41888584470371</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192956</v>
+        <v>122.9820404192959</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605484</v>
+        <v>262.3106962605488</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859557</v>
+        <v>449.0101090859562</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779376</v>
+        <v>643.3443219779381</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948969</v>
+        <v>813.5133472948974</v>
       </c>
       <c r="P2" t="n">
-        <v>924.247672544423</v>
+        <v>924.2476725444234</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660183</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S2" t="n">
-        <v>803.016755062846</v>
+        <v>803.0167550628464</v>
       </c>
       <c r="T2" t="n">
-        <v>803.016755062846</v>
+        <v>803.0167550628464</v>
       </c>
       <c r="U2" t="n">
-        <v>765.8682662676454</v>
+        <v>560.786504414862</v>
       </c>
       <c r="V2" t="n">
-        <v>523.638015619661</v>
+        <v>318.5562537668775</v>
       </c>
       <c r="W2" t="n">
-        <v>523.638015619661</v>
+        <v>318.5562537668775</v>
       </c>
       <c r="X2" t="n">
-        <v>523.638015619661</v>
+        <v>318.5562537668775</v>
       </c>
       <c r="Y2" t="n">
-        <v>523.638015619661</v>
+        <v>281.4077649716768</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>325.2429257216548</v>
+        <v>98.76216002202727</v>
       </c>
       <c r="C3" t="n">
-        <v>325.2429257216548</v>
+        <v>98.76216002202727</v>
       </c>
       <c r="D3" t="n">
-        <v>325.2429257216548</v>
+        <v>98.76216002202727</v>
       </c>
       <c r="E3" t="n">
-        <v>166.0054707161993</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="F3" t="n">
-        <v>166.0054707161993</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G3" t="n">
-        <v>166.0054707161993</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H3" t="n">
-        <v>65.08949286100389</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K3" t="n">
-        <v>152.9092351450193</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L3" t="n">
-        <v>290.138833160713</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M3" t="n">
-        <v>469.6361695153176</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679821</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367425</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640411</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660179</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="S3" t="n">
-        <v>925.599666813378</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="T3" t="n">
-        <v>728.6103709734656</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="U3" t="n">
-        <v>728.6103709734656</v>
+        <v>709.9811054793709</v>
       </c>
       <c r="V3" t="n">
-        <v>493.4582627417229</v>
+        <v>474.8289972476281</v>
       </c>
       <c r="W3" t="n">
-        <v>493.4582627417229</v>
+        <v>474.8289972476281</v>
       </c>
       <c r="X3" t="n">
-        <v>493.4582627417229</v>
+        <v>266.9774970420953</v>
       </c>
       <c r="Y3" t="n">
-        <v>493.4582627417229</v>
+        <v>266.9774970420953</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.5708982363568</v>
+        <v>482.5945219362404</v>
       </c>
       <c r="C4" t="n">
-        <v>161.5708982363568</v>
+        <v>482.5945219362404</v>
       </c>
       <c r="D4" t="n">
-        <v>161.5708982363568</v>
+        <v>482.5945219362404</v>
       </c>
       <c r="E4" t="n">
-        <v>161.5708982363568</v>
+        <v>334.6814283538473</v>
       </c>
       <c r="F4" t="n">
-        <v>161.5708982363568</v>
+        <v>187.791480855937</v>
       </c>
       <c r="G4" t="n">
-        <v>161.5708982363568</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H4" t="n">
-        <v>161.5708982363568</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K4" t="n">
-        <v>63.76336012264326</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>248.5963550234615</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M4" t="n">
-        <v>453.8659557426993</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N4" t="n">
-        <v>659.6893205788035</v>
+        <v>716.1585259030903</v>
       </c>
       <c r="O4" t="n">
-        <v>833.7842159674024</v>
+        <v>830.365896547043</v>
       </c>
       <c r="P4" t="n">
-        <v>959.2317925660179</v>
+        <v>955.8134731456586</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R4" t="n">
-        <v>828.7538312854206</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S4" t="n">
-        <v>828.7538312854206</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="T4" t="n">
-        <v>828.7538312854206</v>
+        <v>733.6025958783833</v>
       </c>
       <c r="U4" t="n">
-        <v>624.5937280278713</v>
+        <v>491.3723452303989</v>
       </c>
       <c r="V4" t="n">
-        <v>624.5937280278713</v>
+        <v>491.3723452303989</v>
       </c>
       <c r="W4" t="n">
-        <v>382.3634773798869</v>
+        <v>482.5945219362404</v>
       </c>
       <c r="X4" t="n">
-        <v>382.3634773798869</v>
+        <v>482.5945219362404</v>
       </c>
       <c r="Y4" t="n">
-        <v>161.5708982363568</v>
+        <v>482.5945219362404</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>938.746832133226</v>
+        <v>1211.037910760298</v>
       </c>
       <c r="C5" t="n">
-        <v>938.746832133226</v>
+        <v>842.0753938198859</v>
       </c>
       <c r="D5" t="n">
-        <v>938.746832133226</v>
+        <v>842.0753938198859</v>
       </c>
       <c r="E5" t="n">
-        <v>552.9585795349817</v>
+        <v>456.2871412216416</v>
       </c>
       <c r="F5" t="n">
-        <v>141.9726747453742</v>
+        <v>45.30123643203407</v>
       </c>
       <c r="G5" t="n">
-        <v>129.5224446076165</v>
+        <v>32.85100629427637</v>
       </c>
       <c r="H5" t="n">
-        <v>129.5224446076165</v>
+        <v>32.85100629427637</v>
       </c>
       <c r="I5" t="n">
-        <v>32.85100629427631</v>
+        <v>32.85100629427637</v>
       </c>
       <c r="J5" t="n">
-        <v>103.7588362828602</v>
+        <v>103.7588362828605</v>
       </c>
       <c r="K5" t="n">
-        <v>260.7698107230117</v>
+        <v>260.7698107230123</v>
       </c>
       <c r="L5" t="n">
-        <v>492.4575702340404</v>
+        <v>492.4575702340412</v>
       </c>
       <c r="M5" t="n">
-        <v>781.9242815861689</v>
+        <v>781.9242815861701</v>
       </c>
       <c r="N5" t="n">
-        <v>1080.688675334937</v>
+        <v>1080.688675334939</v>
       </c>
       <c r="O5" t="n">
-        <v>1349.468159143672</v>
+        <v>1349.468159143674</v>
       </c>
       <c r="P5" t="n">
-        <v>1544.364229282342</v>
+        <v>1544.364229282344</v>
       </c>
       <c r="Q5" t="n">
-        <v>1642.550314713816</v>
+        <v>1642.550314713818</v>
       </c>
       <c r="R5" t="n">
-        <v>1642.550314713816</v>
+        <v>1642.550314713818</v>
       </c>
       <c r="S5" t="n">
-        <v>1642.550314713816</v>
+        <v>1499.942777813195</v>
       </c>
       <c r="T5" t="n">
-        <v>1642.550314713816</v>
+        <v>1499.942777813195</v>
       </c>
       <c r="U5" t="n">
-        <v>1642.550314713816</v>
+        <v>1246.298846365178</v>
       </c>
       <c r="V5" t="n">
-        <v>1642.550314713816</v>
+        <v>1246.298846365178</v>
       </c>
       <c r="W5" t="n">
-        <v>1289.781659443702</v>
+        <v>1246.298846365178</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.781659443702</v>
+        <v>1246.298846365178</v>
       </c>
       <c r="Y5" t="n">
-        <v>938.746832133226</v>
+        <v>1246.298846365178</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>594.17856156688</v>
+        <v>329.2103568149762</v>
       </c>
       <c r="C6" t="n">
-        <v>419.725532285753</v>
+        <v>329.2103568149762</v>
       </c>
       <c r="D6" t="n">
-        <v>270.7911226245018</v>
+        <v>329.2103568149762</v>
       </c>
       <c r="E6" t="n">
-        <v>111.5536676190463</v>
+        <v>169.9729018095207</v>
       </c>
       <c r="F6" t="n">
-        <v>111.5536676190463</v>
+        <v>169.9729018095207</v>
       </c>
       <c r="G6" t="n">
-        <v>111.5536676190463</v>
+        <v>32.85100629427637</v>
       </c>
       <c r="H6" t="n">
-        <v>32.85100629427631</v>
+        <v>32.85100629427637</v>
       </c>
       <c r="I6" t="n">
-        <v>32.85100629427631</v>
+        <v>32.85100629427637</v>
       </c>
       <c r="J6" t="n">
-        <v>76.95579043159354</v>
+        <v>56.26537711121846</v>
       </c>
       <c r="K6" t="n">
-        <v>195.1295042687855</v>
+        <v>174.4390909484106</v>
       </c>
       <c r="L6" t="n">
-        <v>400.3511872201259</v>
+        <v>379.6607738997513</v>
       </c>
       <c r="M6" t="n">
-        <v>659.192079715167</v>
+        <v>638.5016663947929</v>
       </c>
       <c r="N6" t="n">
-        <v>939.2923653451855</v>
+        <v>969.3606498904943</v>
       </c>
       <c r="O6" t="n">
-        <v>1173.309609465396</v>
+        <v>1203.377894010705</v>
       </c>
       <c r="P6" t="n">
-        <v>1579.840812357065</v>
+        <v>1371.864297498577</v>
       </c>
       <c r="Q6" t="n">
-        <v>1642.550314713816</v>
+        <v>1642.550314713818</v>
       </c>
       <c r="R6" t="n">
-        <v>1641.275573401332</v>
+        <v>1641.275573401334</v>
       </c>
       <c r="S6" t="n">
-        <v>1641.275573401332</v>
+        <v>1497.743396113246</v>
       </c>
       <c r="T6" t="n">
-        <v>1641.275573401332</v>
+        <v>1302.041918051253</v>
       </c>
       <c r="U6" t="n">
-        <v>1413.157805789177</v>
+        <v>1073.924150439098</v>
       </c>
       <c r="V6" t="n">
-        <v>1178.005697557435</v>
+        <v>838.7720422073558</v>
       </c>
       <c r="W6" t="n">
-        <v>1178.005697557435</v>
+        <v>584.5346854791542</v>
       </c>
       <c r="X6" t="n">
-        <v>970.154197351902</v>
+        <v>376.6831852736213</v>
       </c>
       <c r="Y6" t="n">
-        <v>762.3938985869481</v>
+        <v>329.2103568149762</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.7002828045763</v>
+        <v>281.05588170249</v>
       </c>
       <c r="C7" t="n">
-        <v>180.7640998766694</v>
+        <v>149.3074047253756</v>
       </c>
       <c r="D7" t="n">
-        <v>180.7640998766694</v>
+        <v>149.3074047253756</v>
       </c>
       <c r="E7" t="n">
-        <v>32.85100629427631</v>
+        <v>149.3074047253756</v>
       </c>
       <c r="F7" t="n">
-        <v>32.85100629427631</v>
+        <v>149.3074047253756</v>
       </c>
       <c r="G7" t="n">
-        <v>32.85100629427631</v>
+        <v>149.3074047253756</v>
       </c>
       <c r="H7" t="n">
-        <v>32.85100629427631</v>
+        <v>149.3074047253756</v>
       </c>
       <c r="I7" t="n">
-        <v>32.85100629427631</v>
+        <v>32.85100629427637</v>
       </c>
       <c r="J7" t="n">
-        <v>33.89295411735819</v>
+        <v>33.89295411735833</v>
       </c>
       <c r="K7" t="n">
-        <v>165.4420311779936</v>
+        <v>165.4420311779939</v>
       </c>
       <c r="L7" t="n">
-        <v>389.3059936565137</v>
+        <v>389.3059936565142</v>
       </c>
       <c r="M7" t="n">
-        <v>635.7282771409657</v>
+        <v>635.7282771409664</v>
       </c>
       <c r="N7" t="n">
-        <v>881.725805926896</v>
+        <v>881.7258059268969</v>
       </c>
       <c r="O7" t="n">
-        <v>1092.928044100019</v>
+        <v>1092.92804410002</v>
       </c>
       <c r="P7" t="n">
-        <v>1250.127362942351</v>
+        <v>1250.127362942353</v>
       </c>
       <c r="Q7" t="n">
-        <v>1275.528942871346</v>
+        <v>1275.528942871347</v>
       </c>
       <c r="R7" t="n">
-        <v>1275.528942871346</v>
+        <v>1157.09493444999</v>
       </c>
       <c r="S7" t="n">
-        <v>1275.528942871346</v>
+        <v>954.3227163484046</v>
       </c>
       <c r="T7" t="n">
-        <v>1051.044238266979</v>
+        <v>729.8380117440374</v>
       </c>
       <c r="U7" t="n">
-        <v>1051.044238266979</v>
+        <v>729.8380117440374</v>
       </c>
       <c r="V7" t="n">
-        <v>1051.044238266979</v>
+        <v>729.8380117440374</v>
       </c>
       <c r="W7" t="n">
-        <v>798.4824128461238</v>
+        <v>729.8380117440374</v>
       </c>
       <c r="X7" t="n">
-        <v>570.4928619481065</v>
+        <v>501.8484608460201</v>
       </c>
       <c r="Y7" t="n">
-        <v>349.7002828045763</v>
+        <v>281.05588170249</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1449.505074804839</v>
+        <v>970.5047989601121</v>
       </c>
       <c r="C8" t="n">
-        <v>1449.505074804839</v>
+        <v>601.5422820197005</v>
       </c>
       <c r="D8" t="n">
-        <v>1091.239376198089</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="E8" t="n">
-        <v>705.4511235998443</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="F8" t="n">
-        <v>294.4652188102368</v>
+        <v>236.3310826637465</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4799,16 +4799,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="Y8" t="n">
-        <v>1836.104914868961</v>
+        <v>1357.104639024234</v>
       </c>
     </row>
     <row r="9">
@@ -4863,37 +4863,37 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>846.3061319081667</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
         <v>2199.840679460312</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.18296949591</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1394.715222610545</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>1140.030734404658</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>850.6135643676972</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>622.6240134696799</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.8314343261497</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1858.956087394653</v>
+        <v>1485.490329133578</v>
       </c>
       <c r="C11" t="n">
-        <v>1489.993570454242</v>
+        <v>1116.527812193166</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.318115177623</v>
+        <v>1116.527812193166</v>
       </c>
       <c r="E11" t="n">
-        <v>927.5298625793782</v>
+        <v>809.4505268194422</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897707</v>
+        <v>809.4505268194422</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309163</v>
+        <v>394.8347622605877</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592084</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.1615405656985</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625333</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087835</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484043</v>
+        <v>2455.600890484047</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535297</v>
+        <v>3033.988513535302</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479996</v>
+        <v>3493.12796748</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464062</v>
+        <v>3789.749829464067</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796038</v>
+        <v>3876.883295796042</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345379</v>
+        <v>3776.999350345383</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926743</v>
+        <v>3573.020743926748</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048272</v>
+        <v>3319.526802048276</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704701</v>
+        <v>2988.463914704706</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434587</v>
+        <v>2635.695259434591</v>
       </c>
       <c r="X11" t="n">
-        <v>2635.695259434587</v>
+        <v>2262.229501173511</v>
       </c>
       <c r="Y11" t="n">
-        <v>2245.555927458775</v>
+        <v>1872.0901691977</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390854</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592084</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592075</v>
+        <v>193.8410919870416</v>
       </c>
       <c r="K12" t="n">
-        <v>84.53144813504218</v>
+        <v>470.7769964046662</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929939</v>
+        <v>889.4740370626184</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749522</v>
+        <v>1397.430603019147</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450732</v>
+        <v>1532.266717861143</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.9545584938322</v>
+        <v>394.386942426221</v>
       </c>
       <c r="C13" t="n">
-        <v>758.0183755659253</v>
+        <v>225.450759498314</v>
       </c>
       <c r="D13" t="n">
-        <v>607.9017361535896</v>
+        <v>225.450759498314</v>
       </c>
       <c r="E13" t="n">
-        <v>459.9886425711965</v>
+        <v>77.53766591592084</v>
       </c>
       <c r="F13" t="n">
-        <v>313.0986950732861</v>
+        <v>77.53766591592084</v>
       </c>
       <c r="G13" t="n">
-        <v>313.0986950732861</v>
+        <v>77.53766591592084</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592084</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592084</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758651</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648149</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344808</v>
+        <v>710.5788654344817</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336949</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.36296874281</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2056.743466925585</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742808</v>
+        <v>1868.627619458881</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177249</v>
+        <v>1647.736286893322</v>
       </c>
       <c r="U13" t="n">
-        <v>1916.471636177249</v>
+        <v>1358.644593842773</v>
       </c>
       <c r="V13" t="n">
-        <v>1661.787147971362</v>
+        <v>1103.960105636886</v>
       </c>
       <c r="W13" t="n">
-        <v>1372.369977934401</v>
+        <v>814.5429355999254</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.380427036384</v>
+        <v>796.8279863999908</v>
       </c>
       <c r="Y13" t="n">
-        <v>926.9545584938322</v>
+        <v>576.0354072564606</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1021.293348608258</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="C16" t="n">
-        <v>852.3571656803516</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>702.2405262680159</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5440,7 +5440,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336516</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y16" t="n">
-        <v>1202.941813438498</v>
+        <v>695.502065570305</v>
       </c>
     </row>
     <row r="17">
@@ -5507,52 +5507,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591808</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263187</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="C19" t="n">
-        <v>680.4481746984118</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860761</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036831</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057729</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057729</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.76484885336</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2243.518075718012</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2023.916610740954</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2023.916610740954</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1769.232122535067</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498106</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.825401600089</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.032822456558</v>
+        <v>720.3848083708574</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356191</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356191</v>
+        <v>391.8463960427066</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232833</v>
+        <v>241.7297566303709</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408902</v>
+        <v>93.81666304797776</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429798</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2393.338457106056</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2104.263230450254</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1560.161572207406</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5990,16 +5990,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>945.4026036630039</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>776.466420735097</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>626.3497813227615</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>478.4366877403684</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>478.4366877403684</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630039</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>241.7297566303646</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2410.714175003134</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6455,19 +6455,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6488,22 +6488,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6552,7 +6552,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6625,7 +6625,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C34" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038398</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797799</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910815</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570823</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279808</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580265</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603207</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947405</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741518</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704557</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.19518280654</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630095</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>580.8993044876681</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>411.9631215597612</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,13 +7096,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>983.340348461438</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>762.5477693179079</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356196</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356196</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232839</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7336,13 +7336,13 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
         <v>2035.089393279802</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2393.338457106056</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2393.338457106056</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2393.338457106056</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2104.263230450254</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1849.578742244368</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.5477693179097</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C43" t="n">
-        <v>593.6115863900029</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>443.4949469776673</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>295.5818533952741</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>295.5818533952741</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,49 +7570,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614398</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179097</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7640,28 +7640,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>719.5738700011941</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>550.6376870732872</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D46" t="n">
-        <v>550.6376870732872</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908942</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908942</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797742</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1894.106123115828</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>901.2223348314338</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
-        <v>66.78462588923441</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>66.78462588923487</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>49.70416500698908</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8149,13 +8149,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>102.5492171288662</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.89011047839809</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>28.58095358104322</v>
+        <v>28.58095358104305</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>20.89940739431847</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>51.27141198553784</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>240.449292327068</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>255.8421700460947</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111055</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>179.77434089683</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>77.92385755227474</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927369</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.1718556811017</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.333043494968507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382459896</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>76.60007353871532</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>45.99097492814167</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537254086</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823681</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>164.3170701178259</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345294953</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>6.310863011585766</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>145.1398665102895</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823145</v>
       </c>
       <c r="E31" t="n">
-        <v>32.89260457060014</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.6825818796711</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124966</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303791</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>147.3599015160449</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>13.28686650065975</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823125</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>106.0713126946634</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856546</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012162</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856546</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012162</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>137.2878198583887</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>891305.9724295223</v>
+        <v>891305.9724295225</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282536</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>980774.7989282538</v>
+        <v>980774.7989282536</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282536</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282537</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282538</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282538</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282538</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282538</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282538</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282537</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253561</v>
       </c>
       <c r="C2" t="n">
+        <v>451572.9734253559</v>
+      </c>
+      <c r="D2" t="n">
         <v>451572.9734253558</v>
       </c>
-      <c r="D2" t="n">
-        <v>451572.9734253559</v>
-      </c>
       <c r="E2" t="n">
-        <v>402924.084350918</v>
+        <v>402924.0843509181</v>
       </c>
       <c r="F2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="H2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="I2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="J2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="K2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="L2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="M2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="N2" t="n">
-        <v>443930.6298295032</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="P2" t="n">
         <v>443930.6298295034</v>
@@ -26366,40 +26366,40 @@
         <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>189098.6751706869</v>
+        <v>189098.6751706877</v>
       </c>
       <c r="D3" t="n">
-        <v>237173.5150517691</v>
+        <v>237173.5150517685</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545777</v>
+        <v>313577.1573545785</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704286</v>
+        <v>189308.2687704276</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.345267868590081e-11</v>
       </c>
       <c r="J3" t="n">
         <v>62744.31078353582</v>
       </c>
       <c r="K3" t="n">
-        <v>43966.0803520336</v>
+        <v>43966.08035203368</v>
       </c>
       <c r="L3" t="n">
-        <v>58197.58031572232</v>
+        <v>58197.5803157222</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273094</v>
+        <v>81897.40371273115</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320235</v>
+        <v>49839.57413202327</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060265</v>
+        <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>210476.9869351605</v>
+        <v>210476.9869351603</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
         <v>12891.4455871839</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683035</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683035</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683055</v>
+        <v>12996.86414683036</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26442,22 +26442,22 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683055</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683052</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="P4" t="n">
         <v>12996.86414683048</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12996.86414683045</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437328</v>
+        <v>61145.70223437329</v>
       </c>
       <c r="C5" t="n">
-        <v>74737.94401911825</v>
+        <v>74737.94401911831</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738569</v>
+        <v>85137.48506738579</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-522881.9807951326</v>
+        <v>-522881.9807951325</v>
       </c>
       <c r="C6" t="n">
-        <v>-22740.63269960978</v>
+        <v>-22740.63269961039</v>
       </c>
       <c r="D6" t="n">
-        <v>-22489.40804907677</v>
+        <v>-22489.40804907626</v>
       </c>
       <c r="E6" t="n">
-        <v>-8682.003658229311</v>
+        <v>-8903.134972204769</v>
       </c>
       <c r="F6" t="n">
-        <v>140502.9670883373</v>
+        <v>140468.2291629026</v>
       </c>
       <c r="G6" t="n">
-        <v>329811.2358587659</v>
+        <v>329776.4979333301</v>
       </c>
       <c r="H6" t="n">
-        <v>329811.2358587658</v>
+        <v>329776.4979333301</v>
       </c>
       <c r="I6" t="n">
-        <v>329811.235858766</v>
+        <v>329776.49793333</v>
       </c>
       <c r="J6" t="n">
-        <v>267066.92507523</v>
+        <v>267032.1871497943</v>
       </c>
       <c r="K6" t="n">
-        <v>285845.1555067324</v>
+        <v>285810.4175812964</v>
       </c>
       <c r="L6" t="n">
-        <v>271613.6555430434</v>
+        <v>271578.9176176079</v>
       </c>
       <c r="M6" t="n">
-        <v>247913.8321460349</v>
+        <v>247879.0942205989</v>
       </c>
       <c r="N6" t="n">
-        <v>279971.6617267422</v>
+        <v>279936.9238013068</v>
       </c>
       <c r="O6" t="n">
-        <v>329811.2358587658</v>
+        <v>329776.49793333</v>
       </c>
       <c r="P6" t="n">
-        <v>329811.2358587658</v>
+        <v>329776.4979333301</v>
       </c>
     </row>
   </sheetData>
@@ -26701,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>740.5311575902869</v>
+        <v>740.5311575902875</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.241237214952</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>410.6375786784539</v>
+        <v>410.6375786784546</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490094</v>
+        <v>969.2208239490105</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26917,16 +26917,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-4.181584835737601e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-4.181584835737601e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>147.0550572522222</v>
+        <v>147.0550572522229</v>
       </c>
       <c r="D3" t="n">
-        <v>193.5337345272522</v>
+        <v>193.5337345272518</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974115</v>
+        <v>268.1763450974122</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267222</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8296305369494</v>
+        <v>170.82963053695</v>
       </c>
       <c r="D4" t="n">
-        <v>229.9472534215848</v>
+        <v>229.9472534215843</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489717</v>
       </c>
       <c r="F4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506378</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>170.8296305369494</v>
+        <v>170.8296305369498</v>
       </c>
       <c r="L4" t="n">
-        <v>229.9472534215846</v>
+        <v>229.9472534215845</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489709</v>
+        <v>328.6359918489717</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506387</v>
+        <v>203.4874641506378</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27160,10 +27160,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="K4" t="n">
-        <v>170.8296305369494</v>
+        <v>170.82963053695</v>
       </c>
       <c r="L4" t="n">
-        <v>229.9472534215848</v>
+        <v>229.9472534215843</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489717</v>
       </c>
       <c r="N4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506378</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>125.4649436295031</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>142.1224219307572</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>75.23293593371108</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
         <v>118.4960408938904</v>
@@ -27433,10 +27433,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>214.3777823150521</v>
+        <v>11.34683808079603</v>
       </c>
       <c r="V2" t="n">
-        <v>87.94431032863042</v>
+        <v>87.94431032863031</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>349.4609347488049</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>78.86333152640111</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>114.6763167508781</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
         <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>84.14215243312321</v>
+        <v>46.4527065165924</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>46.71505019508652</v>
+        <v>277.8329532753741</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>347.8255154146485</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27634,7 +27634,7 @@
         <v>308.9865017432183</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>95.70472393020665</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>141.1814615316175</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.0639896953817</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1074921335361</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.71345961868286</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7506765600919</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>18.93632264748541</v>
+        <v>96.85195735900766</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55541033175703</v>
+        <v>34.55541033175698</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>142.096855515207</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.7444632813738</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>158.6845956032457</v>
       </c>
     </row>
     <row r="7">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>36.81582889128464</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>150.35439427591</v>
       </c>
       <c r="I7" t="n">
-        <v>115.2918344467883</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>117.249668337144</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7444959205693</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>36.48679116994464</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>236.4713675256132</v>
+        <v>294.0241623106385</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27904,10 +27904,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,25 +28059,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>267.6622616290998</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>6.561538634396328</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2.573496549384895e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29931,7 +29931,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>5.577047646176819e-12</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -30229,16 +30229,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.350276212680659e-12</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30280,16 +30280,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30457,19 +30457,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30517,16 +30517,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30694,16 +30694,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.97700967875492</v>
+        <v>2.977009678754922</v>
       </c>
       <c r="H5" t="n">
-        <v>30.48830037254883</v>
+        <v>30.48830037254886</v>
       </c>
       <c r="I5" t="n">
-        <v>114.7711656401992</v>
+        <v>114.7711656401993</v>
       </c>
       <c r="J5" t="n">
-        <v>252.6699752222256</v>
+        <v>252.6699752222258</v>
       </c>
       <c r="K5" t="n">
-        <v>378.6867949239214</v>
+        <v>378.6867949239218</v>
       </c>
       <c r="L5" t="n">
-        <v>469.7944548801174</v>
+        <v>469.7944548801178</v>
       </c>
       <c r="M5" t="n">
-        <v>522.7368507546752</v>
+        <v>522.7368507546756</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1952795044376</v>
+        <v>531.1952795044382</v>
       </c>
       <c r="O5" t="n">
-        <v>501.5926395113184</v>
+        <v>501.5926395113189</v>
       </c>
       <c r="P5" t="n">
-        <v>428.0977130670562</v>
+        <v>428.0977130670566</v>
       </c>
       <c r="Q5" t="n">
-        <v>321.4835539466455</v>
+        <v>321.4835539466459</v>
       </c>
       <c r="R5" t="n">
-        <v>187.0045842330889</v>
+        <v>187.0045842330891</v>
       </c>
       <c r="S5" t="n">
-        <v>67.8386080546278</v>
+        <v>67.83860805462787</v>
       </c>
       <c r="T5" t="n">
-        <v>13.03185986874967</v>
+        <v>13.03185986874968</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2381607743003935</v>
+        <v>0.2381607743003938</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.59284060311873</v>
+        <v>1.592840603118732</v>
       </c>
       <c r="H6" t="n">
-        <v>15.38348687748879</v>
+        <v>15.38348687748881</v>
       </c>
       <c r="I6" t="n">
-        <v>54.84122251965805</v>
+        <v>54.8412225196581</v>
       </c>
       <c r="J6" t="n">
-        <v>150.4885062797394</v>
+        <v>150.4885062797395</v>
       </c>
       <c r="K6" t="n">
-        <v>257.2088266886943</v>
+        <v>257.2088266886945</v>
       </c>
       <c r="L6" t="n">
-        <v>345.8490090236524</v>
+        <v>345.8490090236527</v>
       </c>
       <c r="M6" t="n">
-        <v>403.5894808867063</v>
+        <v>403.5894808867067</v>
       </c>
       <c r="N6" t="n">
-        <v>414.2712935277964</v>
+        <v>414.2712935277968</v>
       </c>
       <c r="O6" t="n">
-        <v>378.9772991113235</v>
+        <v>378.9772991113239</v>
       </c>
       <c r="P6" t="n">
-        <v>304.1626937657161</v>
+        <v>304.1626937657164</v>
       </c>
       <c r="Q6" t="n">
-        <v>203.3247057595067</v>
+        <v>203.3247057595069</v>
       </c>
       <c r="R6" t="n">
-        <v>98.89584025328401</v>
+        <v>98.89584025328411</v>
       </c>
       <c r="S6" t="n">
-        <v>29.58631558863078</v>
+        <v>29.58631558863081</v>
       </c>
       <c r="T6" t="n">
-        <v>6.420265413447862</v>
+        <v>6.420265413447868</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1047921449420218</v>
+        <v>0.1047921449420219</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.335384054671009</v>
+        <v>1.33538405467101</v>
       </c>
       <c r="H7" t="n">
-        <v>11.87277823152952</v>
+        <v>11.87277823152954</v>
       </c>
       <c r="I7" t="n">
-        <v>40.15864048046999</v>
+        <v>40.15864048047003</v>
       </c>
       <c r="J7" t="n">
-        <v>94.41165266524033</v>
+        <v>94.41165266524041</v>
       </c>
       <c r="K7" t="n">
-        <v>155.1473474426863</v>
+        <v>155.1473474426864</v>
       </c>
       <c r="L7" t="n">
-        <v>198.5351893644517</v>
+        <v>198.5351893644519</v>
       </c>
       <c r="M7" t="n">
-        <v>209.3275204972018</v>
+        <v>209.327520497202</v>
       </c>
       <c r="N7" t="n">
-        <v>204.3501799297919</v>
+        <v>204.3501799297921</v>
       </c>
       <c r="O7" t="n">
-        <v>188.750466200226</v>
+        <v>188.7504662002261</v>
       </c>
       <c r="P7" t="n">
-        <v>161.5086314849372</v>
+        <v>161.5086314849374</v>
       </c>
       <c r="Q7" t="n">
-        <v>111.8202047961333</v>
+        <v>111.8202047961334</v>
       </c>
       <c r="R7" t="n">
-        <v>60.04372304002553</v>
+        <v>60.04372304002559</v>
       </c>
       <c r="S7" t="n">
-        <v>23.27210211640294</v>
+        <v>23.27210211640296</v>
       </c>
       <c r="T7" t="n">
-        <v>5.705731869957946</v>
+        <v>5.705731869957951</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07283913025478239</v>
+        <v>0.07283913025478246</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869148</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639243</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.205918420392</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975131</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544663</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954567</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.3875761180175</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956811</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.0102219620363</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825974</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696631</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.15702920968221</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495318</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858575</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837098</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469217</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193139</v>
       </c>
       <c r="K12" t="n">
-        <v>144.90586545832</v>
+        <v>417.5746757598384</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.4806834747753</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821481</v>
+        <v>655.2214742821485</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>267.5398078833293</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>615.2639659924479</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>493.803575338345</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.094612904754</v>
+        <v>330.0946129047543</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627657</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.17012847696438</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535158</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.1969510279846</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085357</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329029</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100544</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770066</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.7594548531031</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.4335533806241</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493067</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194577</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811719</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493542</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377492</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>650.5350891770659</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,13 +32318,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,10 +33989,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>135.0753528219181</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
         <v>138.6157555714078</v>
@@ -34796,7 +34796,7 @@
         <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472408</v>
+        <v>89.75123316395896</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>45.02901441547768</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
         <v>186.6999948493114</v>
@@ -34869,13 +34869,13 @@
         <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854533</v>
+        <v>115.3609804484371</v>
       </c>
       <c r="P4" t="n">
         <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.6240706955393</v>
+        <v>71.62407069553956</v>
       </c>
       <c r="K5" t="n">
-        <v>158.5969438789409</v>
+        <v>158.5969438789412</v>
       </c>
       <c r="L5" t="n">
-        <v>234.0280399101302</v>
+        <v>234.0280399101306</v>
       </c>
       <c r="M5" t="n">
-        <v>292.3906175274025</v>
+        <v>292.3906175274029</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7822159078467</v>
+        <v>301.7822159078473</v>
       </c>
       <c r="O5" t="n">
-        <v>271.4944280896317</v>
+        <v>271.4944280896322</v>
       </c>
       <c r="P5" t="n">
-        <v>196.8647173117867</v>
+        <v>196.8647173117871</v>
       </c>
       <c r="Q5" t="n">
-        <v>99.17786407219606</v>
+        <v>99.1778640721964</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>44.55028700739114</v>
+        <v>23.65087961307282</v>
       </c>
       <c r="K6" t="n">
-        <v>119.3673877143353</v>
+        <v>119.3673877143355</v>
       </c>
       <c r="L6" t="n">
-        <v>207.2946292437782</v>
+        <v>207.2946292437786</v>
       </c>
       <c r="M6" t="n">
-        <v>261.455446964688</v>
+        <v>261.4554469646883</v>
       </c>
       <c r="N6" t="n">
-        <v>282.9295814444631</v>
+        <v>334.2009934300014</v>
       </c>
       <c r="O6" t="n">
-        <v>236.381054666879</v>
+        <v>236.3810546668794</v>
       </c>
       <c r="P6" t="n">
-        <v>410.6375786784539</v>
+        <v>170.1882863513862</v>
       </c>
       <c r="Q6" t="n">
-        <v>63.3429316734852</v>
+        <v>273.4202194093344</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.05247254856755</v>
+        <v>1.052472548567636</v>
       </c>
       <c r="K7" t="n">
-        <v>132.8778556168034</v>
+        <v>132.8778556168036</v>
       </c>
       <c r="L7" t="n">
-        <v>226.1252146247678</v>
+        <v>226.125214624768</v>
       </c>
       <c r="M7" t="n">
-        <v>248.9113974590424</v>
+        <v>248.9113974590426</v>
       </c>
       <c r="N7" t="n">
-        <v>248.4823523090205</v>
+        <v>248.4823523090207</v>
       </c>
       <c r="O7" t="n">
-        <v>213.3355941142656</v>
+        <v>213.3355941142658</v>
       </c>
       <c r="P7" t="n">
-        <v>158.7871907498307</v>
+        <v>158.7871907498309</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.65816154443893</v>
+        <v>25.65816154443903</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>553.5225306839449</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>474.3640795072286</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937057</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.7024857525326</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.937842484479</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.309210568184</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214265</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739944</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067668</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081479</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553102</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526472</v>
       </c>
       <c r="K12" t="n">
-        <v>7.064426483961038</v>
+        <v>279.7332367854794</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.9263036949012</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601297</v>
+        <v>513.0874403601301</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>136.198095799996</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>472.6677215480034</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240147</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187325</v>
+        <v>190.1128388187328</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655359</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.9167231918629</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.60990180702</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703705</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388472</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323318</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946638</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022142002</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776328</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>519.1933770937326</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,13 +35966,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37227,7 +37227,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096405</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
         <v>394.3420143191314</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,10 +37637,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
